--- a/csdata/Fe/SI/Fe8+.xlsx
+++ b/csdata/Fe/SI/Fe8+.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gmondeel/Documents/CfA/Chandra/CHANDRA-Rates/csdata/Fe/SI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DFBB5E-10E3-F145-A466-B7C597E123E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABEAA2B-49BD-E749-8027-3778512931EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="780" windowWidth="15140" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Energy (eV)</t>
   </si>
@@ -39,6 +52,9 @@
   <si>
     <t>Storage ring cross section measurements for electron impact ionization of Fe Fe8+ Hahn 2016</t>
   </si>
+  <si>
+    <t>Unc at peak</t>
+  </si>
 </sst>
 </file>
 
@@ -47,7 +63,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -79,6 +95,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -100,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -118,6 +141,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -336,15 +360,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E528"/>
+  <dimension ref="A1:F528"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
-      <selection activeCell="C280" sqref="C280"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -360,8 +384,11 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F1" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>117</v>
       </c>
@@ -377,8 +404,12 @@
       <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F2">
+        <f>_xlfn.XLOOKUP(MAX(B:B),B:B,C:C)/MAX(B:B)</f>
+        <v>0.3401376327720057</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>119</v>
       </c>
@@ -391,7 +422,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>121</v>
       </c>
@@ -404,7 +435,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>123</v>
       </c>
@@ -416,7 +447,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>125</v>
       </c>
@@ -428,7 +459,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>127</v>
       </c>
@@ -440,7 +471,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>129</v>
       </c>
@@ -452,7 +483,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>131</v>
       </c>
@@ -463,7 +494,7 @@
         <v>2.02E-20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>133</v>
       </c>
@@ -474,7 +505,7 @@
         <v>2.04E-20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>135</v>
       </c>
@@ -485,7 +516,7 @@
         <v>1.85E-20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>137</v>
       </c>
@@ -496,7 +527,7 @@
         <v>2.4400000000000001E-20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>139</v>
       </c>
@@ -507,7 +538,7 @@
         <v>1.8600000000000001E-20</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>141</v>
       </c>
@@ -518,7 +549,7 @@
         <v>2.0600000000000001E-20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>143</v>
       </c>
@@ -529,7 +560,7 @@
         <v>1.84E-20</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>145</v>
       </c>
